--- a/Listas de precios/mayorista/SOPORTE DE ESTANTE.xlsx
+++ b/Listas de precios/mayorista/SOPORTE DE ESTANTE.xlsx
@@ -815,7 +815,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="F1" s="23" t="n"/>
       <c r="G1" s="23" t="n"/>
@@ -1151,26 +1151,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/SOPORTE DE ESTANTE.xlsx
+++ b/Listas de precios/mayorista/SOPORTE DE ESTANTE.xlsx
@@ -815,7 +815,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="F1" s="23" t="n"/>
       <c r="G1" s="23" t="n"/>
@@ -1151,26 +1151,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/SOPORTE DE ESTANTE.xlsx
+++ b/Listas de precios/mayorista/SOPORTE DE ESTANTE.xlsx
@@ -815,7 +815,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="F1" s="23" t="n"/>
       <c r="G1" s="23" t="n"/>
@@ -1151,26 +1151,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
